--- a/data/outputs/能源化工元源数据文件/33Journal of Energy in Southern Africa.xlsx
+++ b/data/outputs/能源化工元源数据文件/33Journal of Energy in Southern Africa.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ53"/>
+  <dimension ref="A1:BR53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1118,6 +1124,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1315,6 +1322,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1508,6 +1516,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1701,6 +1710,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1902,6 +1912,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2095,6 +2106,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2284,6 +2296,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2453,6 +2466,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2646,6 +2660,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2839,6 +2854,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3032,6 +3048,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3237,6 +3254,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3430,6 +3448,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3619,6 +3638,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3808,6 +3828,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4001,6 +4022,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4202,6 +4224,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4391,6 +4414,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4592,6 +4616,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4801,6 +4826,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4994,6 +5020,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5199,6 +5226,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5388,6 +5416,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5589,6 +5618,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5786,6 +5816,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5987,6 +6018,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6180,6 +6212,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6373,6 +6406,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6570,6 +6604,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6775,6 +6810,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6972,6 +7008,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7165,6 +7202,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7354,6 +7392,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7555,6 +7594,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7748,6 +7788,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7941,6 +7982,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8110,6 +8152,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8315,6 +8358,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8500,6 +8544,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8689,6 +8734,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8878,6 +8924,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9075,6 +9122,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9272,6 +9320,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9461,6 +9510,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9658,6 +9708,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9851,6 +9902,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10052,6 +10104,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10237,6 +10290,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10426,6 +10480,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10623,6 +10678,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10820,6 +10876,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
